--- a/data/trans_bre/IP25-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP25-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,17 +620,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>9,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -640,17 +640,17 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 6,72</t>
+          <t>-0,32; 24,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 4,85</t>
+          <t>-9,97; 11,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 3,26</t>
+          <t>-19,92; 15,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 7,95</t>
+          <t>-0,15; 34,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 5,59</t>
+          <t>-10,47; 13,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 3,67</t>
+          <t>-20,94; 18,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,17 +820,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,17 +840,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,16%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,69%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 11,31</t>
+          <t>-3,35; 6,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 0,54</t>
+          <t>-4,46; 4,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 3,65</t>
+          <t>-5,36; 3,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 13,64</t>
+          <t>-3,72; 7,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 0,57</t>
+          <t>-4,94; 5,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 4,23</t>
+          <t>-5,72; 3,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,17 +920,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>-6,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>-1,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 24,74</t>
+          <t>-5,6; 6,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 11,91</t>
+          <t>-11,73; -0,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 15,26</t>
+          <t>-5,79; 2,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 34,2</t>
+          <t>-6,1; 7,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 13,52</t>
+          <t>-12,79; -0,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 18,43</t>
+          <t>-5,97; 2,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,99</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,61%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,73%</t>
+          <t>-1,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 6,5</t>
+          <t>1,47; 11,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,73; -0,32</t>
+          <t>-9,56; 0,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 2,44</t>
+          <t>-6,63; 3,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 7,72</t>
+          <t>1,69; 13,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,79; -0,4</t>
+          <t>-10,17; 0,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 2,61</t>
+          <t>-7,17; 4,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">

--- a/data/trans_bre/IP25-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP25-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 24,74</t>
+          <t>-3,16; 22,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 11,91</t>
+          <t>-8,6; 11,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 15,26</t>
+          <t>-18,1; 17,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 34,2</t>
+          <t>-3,17; 32,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 13,52</t>
+          <t>-8,87; 13,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 18,43</t>
+          <t>-19,01; 22,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 6,4</t>
+          <t>-6,18; 6,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 6,8</t>
+          <t>-5,01; 7,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 3,99</t>
+          <t>-8,3; 4,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 7,45</t>
+          <t>-6,65; 7,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 7,71</t>
+          <t>-5,29; 8,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 4,53</t>
+          <t>-8,74; 4,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 6,72</t>
+          <t>-3,65; 7,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 4,85</t>
+          <t>-4,16; 4,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 3,26</t>
+          <t>-5,36; 3,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 7,95</t>
+          <t>-4,13; 8,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 5,59</t>
+          <t>-4,46; 5,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 3,67</t>
+          <t>-5,73; 3,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 6,5</t>
+          <t>-5,45; 6,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,73; -0,32</t>
+          <t>-12,32; -0,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 2,44</t>
+          <t>-5,91; 2,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 7,72</t>
+          <t>-6,02; 7,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,79; -0,4</t>
+          <t>-13,24; -0,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 2,61</t>
+          <t>-6,15; 2,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 11,31</t>
+          <t>1,0; 11,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 0,54</t>
+          <t>-8,89; 0,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 3,65</t>
+          <t>-6,94; 3,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 13,64</t>
+          <t>1,06; 13,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 0,57</t>
+          <t>-9,48; 0,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 4,23</t>
+          <t>-7,55; 4,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,65</t>
+          <t>-0,01; 5,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 0,5</t>
+          <t>-4,5; 0,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,09</t>
+          <t>-3,75; 1,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,22 +1188,29 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,52</t>
+          <t>0,1; 6,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 0,55</t>
+          <t>-4,85; 0,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 1,21</t>
+          <t>-4,08; 1,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP25-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP25-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 22,68</t>
+          <t>-2,88; 25,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 11,47</t>
+          <t>-10,81; 11,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 17,79</t>
+          <t>-19,31; 15,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 32,1</t>
+          <t>-0,29; 37,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 13,01</t>
+          <t>-11,09; 13,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 22,75</t>
+          <t>-20,28; 20,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 6,43</t>
+          <t>-5,42; 6,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 7,16</t>
+          <t>-4,74; 7,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 4,17</t>
+          <t>-8,1; 4,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 7,4</t>
+          <t>-5,92; 6,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 8,17</t>
+          <t>-5,07; 7,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 4,62</t>
+          <t>-8,63; 4,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 7,06</t>
+          <t>-3,19; 6,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 4,83</t>
+          <t>-4,63; 4,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 3,01</t>
+          <t>-5,35; 3,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 8,49</t>
+          <t>-3,59; 7,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 5,6</t>
+          <t>-4,93; 5,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 3,36</t>
+          <t>-5,75; 3,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 6,03</t>
+          <t>-4,74; 6,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,32; -0,59</t>
+          <t>-11,73; -0,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 2,37</t>
+          <t>-5,45; 2,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 7,03</t>
+          <t>-5,19; 7,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,24; -0,7</t>
+          <t>-12,51; -0,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 2,58</t>
+          <t>-5,61; 2,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 11,11</t>
+          <t>0,98; 10,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 0,89</t>
+          <t>-8,55; 1,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 3,66</t>
+          <t>-6,98; 3,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 13,27</t>
+          <t>1,1; 13,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 0,9</t>
+          <t>-9,06; 1,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 4,27</t>
+          <t>-7,73; 4,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 5,4</t>
+          <t>0,29; 5,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 0,57</t>
+          <t>-4,8; 0,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,27</t>
+          <t>-4,02; 1,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,25</t>
+          <t>0,33; 6,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 0,62</t>
+          <t>-5,22; 0,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,42</t>
+          <t>-4,37; 1,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/IP25-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP25-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,17 +620,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -640,17 +640,17 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>-2,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 25,65</t>
+          <t>-3,71; 7,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 11,65</t>
+          <t>-3,97; 5,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 15,86</t>
+          <t>-7,39; 4,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 37,51</t>
+          <t>-3,96; 9,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 13,18</t>
+          <t>-4,28; 6,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 20,04</t>
+          <t>-7,93; 4,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,17 +720,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,34%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 6,04</t>
+          <t>-3,35; 6,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 7,01</t>
+          <t>-4,46; 4,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 4,17</t>
+          <t>-5,36; 3,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 6,96</t>
+          <t>-3,72; 7,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 7,8</t>
+          <t>-4,94; 5,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 4,63</t>
+          <t>-5,72; 3,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,17 +820,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,17 +840,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>-6,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>-1,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 6,65</t>
+          <t>-5,6; 6,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 4,96</t>
+          <t>-11,73; -0,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 3,29</t>
+          <t>-5,79; 2,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 7,97</t>
+          <t>-6,1; 7,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 5,61</t>
+          <t>-12,79; -0,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 3,64</t>
+          <t>-5,97; 2,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,17 +920,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,99</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,61%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,73%</t>
+          <t>-1,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 6,5</t>
+          <t>1,47; 11,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,73; -0,13</t>
+          <t>-9,56; 0,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 2,62</t>
+          <t>-6,63; 3,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 7,72</t>
+          <t>1,69; 13,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,51; -0,16</t>
+          <t>-10,17; 0,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 2,86</t>
+          <t>-7,17; 4,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,12 +1020,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,16%</t>
+          <t>-2,38%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,69%</t>
+          <t>-1,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 10,98</t>
+          <t>0,09; 5,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 1,06</t>
+          <t>-4,72; 0,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 3,82</t>
+          <t>-3,84; 1,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 13,13</t>
+          <t>0,1; 6,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 1,18</t>
+          <t>-5,12; 0,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 4,48</t>
+          <t>-4,17; 1,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1108,114 +1108,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,17%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-2,38%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-1,64%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 5,68</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,8; 0,48</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 1,02</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,33; 6,6</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-5,22; 0,53</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-4,37; 1,1</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
